--- a/Chen/1. Data Exploration/20141206_Liverpool_vs_Sunderland.xlsx
+++ b/Chen/1. Data Exploration/20141206_Liverpool_vs_Sunderland.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X6"/>
+  <dimension ref="A1:DP6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,12 +551,492 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 22</t>
+          <t>Div</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 23</t>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>B365H</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>B365D</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>B365A</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>BWH</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>BWD</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>BFH</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>BFD</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>PSH</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>PSD</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>PSA</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>WHH</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>WHD</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>WHA</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>1XBH</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>1XBD</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>1XBA</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>MaxH</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>MaxD</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>MaxA</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>AvgH</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>AvgD</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>AvgA</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>BFEH</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>BFED</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>BFEA</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>B365&gt;2.5</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>B365&lt;2.5</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>P&gt;2.5</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>P&lt;2.5</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>Max&gt;2.5</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>Max&lt;2.5</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>Avg&gt;2.5</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>Avg&lt;2.5</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>BFE&gt;2.5</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>BFE&lt;2.5</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>AHh</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>B365AHH</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>B365AHA</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>PAHH</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>PAHA</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>MaxAHH</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>MaxAHA</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>AvgAHH</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>AvgAHA</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>BFEAHH</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>BFEAHA</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>B365CH</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>B365CD</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>B365CA</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>BWCH</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>BWCD</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>BWCA</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>BFCH</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>BFCD</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>BFCA</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>PSCH</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>PSCD</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>PSCA</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>WHCH</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>WHCD</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>WHCA</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>1XBCH</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>1XBCD</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>1XBCA</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>MaxCH</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>MaxCD</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>MaxCA</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>AvgCH</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>AvgCD</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>AvgCA</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>BFECH</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>BFECD</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>BFECA</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>B365C&gt;2.5</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>B365C&lt;2.5</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>PC&gt;2.5</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>PC&lt;2.5</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>MaxC&gt;2.5</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>MaxC&lt;2.5</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>AvgC&gt;2.5</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>AvgC&lt;2.5</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>BFEC&gt;2.5</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>BFEC&lt;2.5</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>AHCh</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>B365CAHH</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>B365CAHA</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>PCAHH</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>PCAHA</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>MaxCAHH</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>MaxCAHA</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>AvgCAHH</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>AvgCAHA</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>BFECAHH</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>BFECAHA</t>
         </is>
       </c>
     </row>
@@ -639,6 +1119,102 @@
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr"/>
+      <c r="AS2" t="inlineStr"/>
+      <c r="AT2" t="inlineStr"/>
+      <c r="AU2" t="inlineStr"/>
+      <c r="AV2" t="inlineStr"/>
+      <c r="AW2" t="inlineStr"/>
+      <c r="AX2" t="inlineStr"/>
+      <c r="AY2" t="inlineStr"/>
+      <c r="AZ2" t="inlineStr"/>
+      <c r="BA2" t="inlineStr"/>
+      <c r="BB2" t="inlineStr"/>
+      <c r="BC2" t="inlineStr"/>
+      <c r="BD2" t="inlineStr"/>
+      <c r="BE2" t="inlineStr"/>
+      <c r="BF2" t="inlineStr"/>
+      <c r="BG2" t="inlineStr"/>
+      <c r="BH2" t="inlineStr"/>
+      <c r="BI2" t="inlineStr"/>
+      <c r="BJ2" t="inlineStr"/>
+      <c r="BK2" t="inlineStr"/>
+      <c r="BL2" t="inlineStr"/>
+      <c r="BM2" t="inlineStr"/>
+      <c r="BN2" t="inlineStr"/>
+      <c r="BO2" t="inlineStr"/>
+      <c r="BP2" t="inlineStr"/>
+      <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
+      <c r="BS2" t="inlineStr"/>
+      <c r="BT2" t="inlineStr"/>
+      <c r="BU2" t="inlineStr"/>
+      <c r="BV2" t="inlineStr"/>
+      <c r="BW2" t="inlineStr"/>
+      <c r="BX2" t="inlineStr"/>
+      <c r="BY2" t="inlineStr"/>
+      <c r="BZ2" t="inlineStr"/>
+      <c r="CA2" t="inlineStr"/>
+      <c r="CB2" t="inlineStr"/>
+      <c r="CC2" t="inlineStr"/>
+      <c r="CD2" t="inlineStr"/>
+      <c r="CE2" t="inlineStr"/>
+      <c r="CF2" t="inlineStr"/>
+      <c r="CG2" t="inlineStr"/>
+      <c r="CH2" t="inlineStr"/>
+      <c r="CI2" t="inlineStr"/>
+      <c r="CJ2" t="inlineStr"/>
+      <c r="CK2" t="inlineStr"/>
+      <c r="CL2" t="inlineStr"/>
+      <c r="CM2" t="inlineStr"/>
+      <c r="CN2" t="inlineStr"/>
+      <c r="CO2" t="inlineStr"/>
+      <c r="CP2" t="inlineStr"/>
+      <c r="CQ2" t="inlineStr"/>
+      <c r="CR2" t="inlineStr"/>
+      <c r="CS2" t="inlineStr"/>
+      <c r="CT2" t="inlineStr"/>
+      <c r="CU2" t="inlineStr"/>
+      <c r="CV2" t="inlineStr"/>
+      <c r="CW2" t="inlineStr"/>
+      <c r="CX2" t="inlineStr"/>
+      <c r="CY2" t="inlineStr"/>
+      <c r="CZ2" t="inlineStr"/>
+      <c r="DA2" t="inlineStr"/>
+      <c r="DB2" t="inlineStr"/>
+      <c r="DC2" t="inlineStr"/>
+      <c r="DD2" t="inlineStr"/>
+      <c r="DE2" t="inlineStr"/>
+      <c r="DF2" t="inlineStr"/>
+      <c r="DG2" t="inlineStr"/>
+      <c r="DH2" t="inlineStr"/>
+      <c r="DI2" t="inlineStr"/>
+      <c r="DJ2" t="inlineStr"/>
+      <c r="DK2" t="inlineStr"/>
+      <c r="DL2" t="inlineStr"/>
+      <c r="DM2" t="inlineStr"/>
+      <c r="DN2" t="inlineStr"/>
+      <c r="DO2" t="inlineStr"/>
+      <c r="DP2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -719,6 +1295,102 @@
       </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="inlineStr"/>
+      <c r="AS3" t="inlineStr"/>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AU3" t="inlineStr"/>
+      <c r="AV3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr"/>
+      <c r="AX3" t="inlineStr"/>
+      <c r="AY3" t="inlineStr"/>
+      <c r="AZ3" t="inlineStr"/>
+      <c r="BA3" t="inlineStr"/>
+      <c r="BB3" t="inlineStr"/>
+      <c r="BC3" t="inlineStr"/>
+      <c r="BD3" t="inlineStr"/>
+      <c r="BE3" t="inlineStr"/>
+      <c r="BF3" t="inlineStr"/>
+      <c r="BG3" t="inlineStr"/>
+      <c r="BH3" t="inlineStr"/>
+      <c r="BI3" t="inlineStr"/>
+      <c r="BJ3" t="inlineStr"/>
+      <c r="BK3" t="inlineStr"/>
+      <c r="BL3" t="inlineStr"/>
+      <c r="BM3" t="inlineStr"/>
+      <c r="BN3" t="inlineStr"/>
+      <c r="BO3" t="inlineStr"/>
+      <c r="BP3" t="inlineStr"/>
+      <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
+      <c r="BS3" t="inlineStr"/>
+      <c r="BT3" t="inlineStr"/>
+      <c r="BU3" t="inlineStr"/>
+      <c r="BV3" t="inlineStr"/>
+      <c r="BW3" t="inlineStr"/>
+      <c r="BX3" t="inlineStr"/>
+      <c r="BY3" t="inlineStr"/>
+      <c r="BZ3" t="inlineStr"/>
+      <c r="CA3" t="inlineStr"/>
+      <c r="CB3" t="inlineStr"/>
+      <c r="CC3" t="inlineStr"/>
+      <c r="CD3" t="inlineStr"/>
+      <c r="CE3" t="inlineStr"/>
+      <c r="CF3" t="inlineStr"/>
+      <c r="CG3" t="inlineStr"/>
+      <c r="CH3" t="inlineStr"/>
+      <c r="CI3" t="inlineStr"/>
+      <c r="CJ3" t="inlineStr"/>
+      <c r="CK3" t="inlineStr"/>
+      <c r="CL3" t="inlineStr"/>
+      <c r="CM3" t="inlineStr"/>
+      <c r="CN3" t="inlineStr"/>
+      <c r="CO3" t="inlineStr"/>
+      <c r="CP3" t="inlineStr"/>
+      <c r="CQ3" t="inlineStr"/>
+      <c r="CR3" t="inlineStr"/>
+      <c r="CS3" t="inlineStr"/>
+      <c r="CT3" t="inlineStr"/>
+      <c r="CU3" t="inlineStr"/>
+      <c r="CV3" t="inlineStr"/>
+      <c r="CW3" t="inlineStr"/>
+      <c r="CX3" t="inlineStr"/>
+      <c r="CY3" t="inlineStr"/>
+      <c r="CZ3" t="inlineStr"/>
+      <c r="DA3" t="inlineStr"/>
+      <c r="DB3" t="inlineStr"/>
+      <c r="DC3" t="inlineStr"/>
+      <c r="DD3" t="inlineStr"/>
+      <c r="DE3" t="inlineStr"/>
+      <c r="DF3" t="inlineStr"/>
+      <c r="DG3" t="inlineStr"/>
+      <c r="DH3" t="inlineStr"/>
+      <c r="DI3" t="inlineStr"/>
+      <c r="DJ3" t="inlineStr"/>
+      <c r="DK3" t="inlineStr"/>
+      <c r="DL3" t="inlineStr"/>
+      <c r="DM3" t="inlineStr"/>
+      <c r="DN3" t="inlineStr"/>
+      <c r="DO3" t="inlineStr"/>
+      <c r="DP3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -799,6 +1471,102 @@
       </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="inlineStr"/>
+      <c r="AS4" t="inlineStr"/>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AU4" t="inlineStr"/>
+      <c r="AV4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr"/>
+      <c r="AX4" t="inlineStr"/>
+      <c r="AY4" t="inlineStr"/>
+      <c r="AZ4" t="inlineStr"/>
+      <c r="BA4" t="inlineStr"/>
+      <c r="BB4" t="inlineStr"/>
+      <c r="BC4" t="inlineStr"/>
+      <c r="BD4" t="inlineStr"/>
+      <c r="BE4" t="inlineStr"/>
+      <c r="BF4" t="inlineStr"/>
+      <c r="BG4" t="inlineStr"/>
+      <c r="BH4" t="inlineStr"/>
+      <c r="BI4" t="inlineStr"/>
+      <c r="BJ4" t="inlineStr"/>
+      <c r="BK4" t="inlineStr"/>
+      <c r="BL4" t="inlineStr"/>
+      <c r="BM4" t="inlineStr"/>
+      <c r="BN4" t="inlineStr"/>
+      <c r="BO4" t="inlineStr"/>
+      <c r="BP4" t="inlineStr"/>
+      <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
+      <c r="BS4" t="inlineStr"/>
+      <c r="BT4" t="inlineStr"/>
+      <c r="BU4" t="inlineStr"/>
+      <c r="BV4" t="inlineStr"/>
+      <c r="BW4" t="inlineStr"/>
+      <c r="BX4" t="inlineStr"/>
+      <c r="BY4" t="inlineStr"/>
+      <c r="BZ4" t="inlineStr"/>
+      <c r="CA4" t="inlineStr"/>
+      <c r="CB4" t="inlineStr"/>
+      <c r="CC4" t="inlineStr"/>
+      <c r="CD4" t="inlineStr"/>
+      <c r="CE4" t="inlineStr"/>
+      <c r="CF4" t="inlineStr"/>
+      <c r="CG4" t="inlineStr"/>
+      <c r="CH4" t="inlineStr"/>
+      <c r="CI4" t="inlineStr"/>
+      <c r="CJ4" t="inlineStr"/>
+      <c r="CK4" t="inlineStr"/>
+      <c r="CL4" t="inlineStr"/>
+      <c r="CM4" t="inlineStr"/>
+      <c r="CN4" t="inlineStr"/>
+      <c r="CO4" t="inlineStr"/>
+      <c r="CP4" t="inlineStr"/>
+      <c r="CQ4" t="inlineStr"/>
+      <c r="CR4" t="inlineStr"/>
+      <c r="CS4" t="inlineStr"/>
+      <c r="CT4" t="inlineStr"/>
+      <c r="CU4" t="inlineStr"/>
+      <c r="CV4" t="inlineStr"/>
+      <c r="CW4" t="inlineStr"/>
+      <c r="CX4" t="inlineStr"/>
+      <c r="CY4" t="inlineStr"/>
+      <c r="CZ4" t="inlineStr"/>
+      <c r="DA4" t="inlineStr"/>
+      <c r="DB4" t="inlineStr"/>
+      <c r="DC4" t="inlineStr"/>
+      <c r="DD4" t="inlineStr"/>
+      <c r="DE4" t="inlineStr"/>
+      <c r="DF4" t="inlineStr"/>
+      <c r="DG4" t="inlineStr"/>
+      <c r="DH4" t="inlineStr"/>
+      <c r="DI4" t="inlineStr"/>
+      <c r="DJ4" t="inlineStr"/>
+      <c r="DK4" t="inlineStr"/>
+      <c r="DL4" t="inlineStr"/>
+      <c r="DM4" t="inlineStr"/>
+      <c r="DN4" t="inlineStr"/>
+      <c r="DO4" t="inlineStr"/>
+      <c r="DP4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -879,6 +1647,102 @@
       </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr"/>
+      <c r="AS5" t="inlineStr"/>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AU5" t="inlineStr"/>
+      <c r="AV5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr"/>
+      <c r="AX5" t="inlineStr"/>
+      <c r="AY5" t="inlineStr"/>
+      <c r="AZ5" t="inlineStr"/>
+      <c r="BA5" t="inlineStr"/>
+      <c r="BB5" t="inlineStr"/>
+      <c r="BC5" t="inlineStr"/>
+      <c r="BD5" t="inlineStr"/>
+      <c r="BE5" t="inlineStr"/>
+      <c r="BF5" t="inlineStr"/>
+      <c r="BG5" t="inlineStr"/>
+      <c r="BH5" t="inlineStr"/>
+      <c r="BI5" t="inlineStr"/>
+      <c r="BJ5" t="inlineStr"/>
+      <c r="BK5" t="inlineStr"/>
+      <c r="BL5" t="inlineStr"/>
+      <c r="BM5" t="inlineStr"/>
+      <c r="BN5" t="inlineStr"/>
+      <c r="BO5" t="inlineStr"/>
+      <c r="BP5" t="inlineStr"/>
+      <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
+      <c r="BS5" t="inlineStr"/>
+      <c r="BT5" t="inlineStr"/>
+      <c r="BU5" t="inlineStr"/>
+      <c r="BV5" t="inlineStr"/>
+      <c r="BW5" t="inlineStr"/>
+      <c r="BX5" t="inlineStr"/>
+      <c r="BY5" t="inlineStr"/>
+      <c r="BZ5" t="inlineStr"/>
+      <c r="CA5" t="inlineStr"/>
+      <c r="CB5" t="inlineStr"/>
+      <c r="CC5" t="inlineStr"/>
+      <c r="CD5" t="inlineStr"/>
+      <c r="CE5" t="inlineStr"/>
+      <c r="CF5" t="inlineStr"/>
+      <c r="CG5" t="inlineStr"/>
+      <c r="CH5" t="inlineStr"/>
+      <c r="CI5" t="inlineStr"/>
+      <c r="CJ5" t="inlineStr"/>
+      <c r="CK5" t="inlineStr"/>
+      <c r="CL5" t="inlineStr"/>
+      <c r="CM5" t="inlineStr"/>
+      <c r="CN5" t="inlineStr"/>
+      <c r="CO5" t="inlineStr"/>
+      <c r="CP5" t="inlineStr"/>
+      <c r="CQ5" t="inlineStr"/>
+      <c r="CR5" t="inlineStr"/>
+      <c r="CS5" t="inlineStr"/>
+      <c r="CT5" t="inlineStr"/>
+      <c r="CU5" t="inlineStr"/>
+      <c r="CV5" t="inlineStr"/>
+      <c r="CW5" t="inlineStr"/>
+      <c r="CX5" t="inlineStr"/>
+      <c r="CY5" t="inlineStr"/>
+      <c r="CZ5" t="inlineStr"/>
+      <c r="DA5" t="inlineStr"/>
+      <c r="DB5" t="inlineStr"/>
+      <c r="DC5" t="inlineStr"/>
+      <c r="DD5" t="inlineStr"/>
+      <c r="DE5" t="inlineStr"/>
+      <c r="DF5" t="inlineStr"/>
+      <c r="DG5" t="inlineStr"/>
+      <c r="DH5" t="inlineStr"/>
+      <c r="DI5" t="inlineStr"/>
+      <c r="DJ5" t="inlineStr"/>
+      <c r="DK5" t="inlineStr"/>
+      <c r="DL5" t="inlineStr"/>
+      <c r="DM5" t="inlineStr"/>
+      <c r="DN5" t="inlineStr"/>
+      <c r="DO5" t="inlineStr"/>
+      <c r="DP5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -959,6 +1823,102 @@
       </c>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr"/>
+      <c r="AS6" t="inlineStr"/>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AU6" t="inlineStr"/>
+      <c r="AV6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr"/>
+      <c r="AX6" t="inlineStr"/>
+      <c r="AY6" t="inlineStr"/>
+      <c r="AZ6" t="inlineStr"/>
+      <c r="BA6" t="inlineStr"/>
+      <c r="BB6" t="inlineStr"/>
+      <c r="BC6" t="inlineStr"/>
+      <c r="BD6" t="inlineStr"/>
+      <c r="BE6" t="inlineStr"/>
+      <c r="BF6" t="inlineStr"/>
+      <c r="BG6" t="inlineStr"/>
+      <c r="BH6" t="inlineStr"/>
+      <c r="BI6" t="inlineStr"/>
+      <c r="BJ6" t="inlineStr"/>
+      <c r="BK6" t="inlineStr"/>
+      <c r="BL6" t="inlineStr"/>
+      <c r="BM6" t="inlineStr"/>
+      <c r="BN6" t="inlineStr"/>
+      <c r="BO6" t="inlineStr"/>
+      <c r="BP6" t="inlineStr"/>
+      <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
+      <c r="BS6" t="inlineStr"/>
+      <c r="BT6" t="inlineStr"/>
+      <c r="BU6" t="inlineStr"/>
+      <c r="BV6" t="inlineStr"/>
+      <c r="BW6" t="inlineStr"/>
+      <c r="BX6" t="inlineStr"/>
+      <c r="BY6" t="inlineStr"/>
+      <c r="BZ6" t="inlineStr"/>
+      <c r="CA6" t="inlineStr"/>
+      <c r="CB6" t="inlineStr"/>
+      <c r="CC6" t="inlineStr"/>
+      <c r="CD6" t="inlineStr"/>
+      <c r="CE6" t="inlineStr"/>
+      <c r="CF6" t="inlineStr"/>
+      <c r="CG6" t="inlineStr"/>
+      <c r="CH6" t="inlineStr"/>
+      <c r="CI6" t="inlineStr"/>
+      <c r="CJ6" t="inlineStr"/>
+      <c r="CK6" t="inlineStr"/>
+      <c r="CL6" t="inlineStr"/>
+      <c r="CM6" t="inlineStr"/>
+      <c r="CN6" t="inlineStr"/>
+      <c r="CO6" t="inlineStr"/>
+      <c r="CP6" t="inlineStr"/>
+      <c r="CQ6" t="inlineStr"/>
+      <c r="CR6" t="inlineStr"/>
+      <c r="CS6" t="inlineStr"/>
+      <c r="CT6" t="inlineStr"/>
+      <c r="CU6" t="inlineStr"/>
+      <c r="CV6" t="inlineStr"/>
+      <c r="CW6" t="inlineStr"/>
+      <c r="CX6" t="inlineStr"/>
+      <c r="CY6" t="inlineStr"/>
+      <c r="CZ6" t="inlineStr"/>
+      <c r="DA6" t="inlineStr"/>
+      <c r="DB6" t="inlineStr"/>
+      <c r="DC6" t="inlineStr"/>
+      <c r="DD6" t="inlineStr"/>
+      <c r="DE6" t="inlineStr"/>
+      <c r="DF6" t="inlineStr"/>
+      <c r="DG6" t="inlineStr"/>
+      <c r="DH6" t="inlineStr"/>
+      <c r="DI6" t="inlineStr"/>
+      <c r="DJ6" t="inlineStr"/>
+      <c r="DK6" t="inlineStr"/>
+      <c r="DL6" t="inlineStr"/>
+      <c r="DM6" t="inlineStr"/>
+      <c r="DN6" t="inlineStr"/>
+      <c r="DO6" t="inlineStr"/>
+      <c r="DP6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -971,7 +1931,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X6"/>
+  <dimension ref="A1:DP6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1092,12 +2052,492 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 22</t>
+          <t>Div</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 23</t>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>B365H</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>B365D</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>B365A</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>BWH</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>BWD</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>BFH</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>BFD</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>PSH</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>PSD</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>PSA</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>WHH</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>WHD</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>WHA</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>1XBH</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>1XBD</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>1XBA</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>MaxH</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>MaxD</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>MaxA</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>AvgH</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>AvgD</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>AvgA</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>BFEH</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>BFED</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>BFEA</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>B365&gt;2.5</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>B365&lt;2.5</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>P&gt;2.5</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>P&lt;2.5</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>Max&gt;2.5</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>Max&lt;2.5</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>Avg&gt;2.5</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>Avg&lt;2.5</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>BFE&gt;2.5</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>BFE&lt;2.5</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>AHh</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>B365AHH</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>B365AHA</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>PAHH</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>PAHA</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>MaxAHH</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>MaxAHA</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>AvgAHH</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>AvgAHA</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>BFEAHH</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>BFEAHA</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>B365CH</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>B365CD</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>B365CA</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>BWCH</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>BWCD</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>BWCA</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>BFCH</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>BFCD</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>BFCA</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>PSCH</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>PSCD</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>PSCA</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>WHCH</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>WHCD</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>WHCA</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>1XBCH</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>1XBCD</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>1XBCA</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>MaxCH</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>MaxCD</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>MaxCA</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>AvgCH</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>AvgCD</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>AvgCA</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>BFECH</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>BFECD</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>BFECA</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>B365C&gt;2.5</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>B365C&lt;2.5</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>PC&gt;2.5</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>PC&lt;2.5</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>MaxC&gt;2.5</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>MaxC&lt;2.5</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>AvgC&gt;2.5</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>AvgC&lt;2.5</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>BFEC&gt;2.5</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>BFEC&lt;2.5</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>AHCh</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>B365CAHH</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>B365CAHA</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>PCAHH</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>PCAHA</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>MaxCAHH</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>MaxCAHA</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>AvgCAHH</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>AvgCAHA</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>BFECAHH</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>BFECAHA</t>
         </is>
       </c>
     </row>
@@ -1180,6 +2620,102 @@
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr"/>
+      <c r="AS2" t="inlineStr"/>
+      <c r="AT2" t="inlineStr"/>
+      <c r="AU2" t="inlineStr"/>
+      <c r="AV2" t="inlineStr"/>
+      <c r="AW2" t="inlineStr"/>
+      <c r="AX2" t="inlineStr"/>
+      <c r="AY2" t="inlineStr"/>
+      <c r="AZ2" t="inlineStr"/>
+      <c r="BA2" t="inlineStr"/>
+      <c r="BB2" t="inlineStr"/>
+      <c r="BC2" t="inlineStr"/>
+      <c r="BD2" t="inlineStr"/>
+      <c r="BE2" t="inlineStr"/>
+      <c r="BF2" t="inlineStr"/>
+      <c r="BG2" t="inlineStr"/>
+      <c r="BH2" t="inlineStr"/>
+      <c r="BI2" t="inlineStr"/>
+      <c r="BJ2" t="inlineStr"/>
+      <c r="BK2" t="inlineStr"/>
+      <c r="BL2" t="inlineStr"/>
+      <c r="BM2" t="inlineStr"/>
+      <c r="BN2" t="inlineStr"/>
+      <c r="BO2" t="inlineStr"/>
+      <c r="BP2" t="inlineStr"/>
+      <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
+      <c r="BS2" t="inlineStr"/>
+      <c r="BT2" t="inlineStr"/>
+      <c r="BU2" t="inlineStr"/>
+      <c r="BV2" t="inlineStr"/>
+      <c r="BW2" t="inlineStr"/>
+      <c r="BX2" t="inlineStr"/>
+      <c r="BY2" t="inlineStr"/>
+      <c r="BZ2" t="inlineStr"/>
+      <c r="CA2" t="inlineStr"/>
+      <c r="CB2" t="inlineStr"/>
+      <c r="CC2" t="inlineStr"/>
+      <c r="CD2" t="inlineStr"/>
+      <c r="CE2" t="inlineStr"/>
+      <c r="CF2" t="inlineStr"/>
+      <c r="CG2" t="inlineStr"/>
+      <c r="CH2" t="inlineStr"/>
+      <c r="CI2" t="inlineStr"/>
+      <c r="CJ2" t="inlineStr"/>
+      <c r="CK2" t="inlineStr"/>
+      <c r="CL2" t="inlineStr"/>
+      <c r="CM2" t="inlineStr"/>
+      <c r="CN2" t="inlineStr"/>
+      <c r="CO2" t="inlineStr"/>
+      <c r="CP2" t="inlineStr"/>
+      <c r="CQ2" t="inlineStr"/>
+      <c r="CR2" t="inlineStr"/>
+      <c r="CS2" t="inlineStr"/>
+      <c r="CT2" t="inlineStr"/>
+      <c r="CU2" t="inlineStr"/>
+      <c r="CV2" t="inlineStr"/>
+      <c r="CW2" t="inlineStr"/>
+      <c r="CX2" t="inlineStr"/>
+      <c r="CY2" t="inlineStr"/>
+      <c r="CZ2" t="inlineStr"/>
+      <c r="DA2" t="inlineStr"/>
+      <c r="DB2" t="inlineStr"/>
+      <c r="DC2" t="inlineStr"/>
+      <c r="DD2" t="inlineStr"/>
+      <c r="DE2" t="inlineStr"/>
+      <c r="DF2" t="inlineStr"/>
+      <c r="DG2" t="inlineStr"/>
+      <c r="DH2" t="inlineStr"/>
+      <c r="DI2" t="inlineStr"/>
+      <c r="DJ2" t="inlineStr"/>
+      <c r="DK2" t="inlineStr"/>
+      <c r="DL2" t="inlineStr"/>
+      <c r="DM2" t="inlineStr"/>
+      <c r="DN2" t="inlineStr"/>
+      <c r="DO2" t="inlineStr"/>
+      <c r="DP2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1260,6 +2796,102 @@
       </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="inlineStr"/>
+      <c r="AS3" t="inlineStr"/>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AU3" t="inlineStr"/>
+      <c r="AV3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr"/>
+      <c r="AX3" t="inlineStr"/>
+      <c r="AY3" t="inlineStr"/>
+      <c r="AZ3" t="inlineStr"/>
+      <c r="BA3" t="inlineStr"/>
+      <c r="BB3" t="inlineStr"/>
+      <c r="BC3" t="inlineStr"/>
+      <c r="BD3" t="inlineStr"/>
+      <c r="BE3" t="inlineStr"/>
+      <c r="BF3" t="inlineStr"/>
+      <c r="BG3" t="inlineStr"/>
+      <c r="BH3" t="inlineStr"/>
+      <c r="BI3" t="inlineStr"/>
+      <c r="BJ3" t="inlineStr"/>
+      <c r="BK3" t="inlineStr"/>
+      <c r="BL3" t="inlineStr"/>
+      <c r="BM3" t="inlineStr"/>
+      <c r="BN3" t="inlineStr"/>
+      <c r="BO3" t="inlineStr"/>
+      <c r="BP3" t="inlineStr"/>
+      <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
+      <c r="BS3" t="inlineStr"/>
+      <c r="BT3" t="inlineStr"/>
+      <c r="BU3" t="inlineStr"/>
+      <c r="BV3" t="inlineStr"/>
+      <c r="BW3" t="inlineStr"/>
+      <c r="BX3" t="inlineStr"/>
+      <c r="BY3" t="inlineStr"/>
+      <c r="BZ3" t="inlineStr"/>
+      <c r="CA3" t="inlineStr"/>
+      <c r="CB3" t="inlineStr"/>
+      <c r="CC3" t="inlineStr"/>
+      <c r="CD3" t="inlineStr"/>
+      <c r="CE3" t="inlineStr"/>
+      <c r="CF3" t="inlineStr"/>
+      <c r="CG3" t="inlineStr"/>
+      <c r="CH3" t="inlineStr"/>
+      <c r="CI3" t="inlineStr"/>
+      <c r="CJ3" t="inlineStr"/>
+      <c r="CK3" t="inlineStr"/>
+      <c r="CL3" t="inlineStr"/>
+      <c r="CM3" t="inlineStr"/>
+      <c r="CN3" t="inlineStr"/>
+      <c r="CO3" t="inlineStr"/>
+      <c r="CP3" t="inlineStr"/>
+      <c r="CQ3" t="inlineStr"/>
+      <c r="CR3" t="inlineStr"/>
+      <c r="CS3" t="inlineStr"/>
+      <c r="CT3" t="inlineStr"/>
+      <c r="CU3" t="inlineStr"/>
+      <c r="CV3" t="inlineStr"/>
+      <c r="CW3" t="inlineStr"/>
+      <c r="CX3" t="inlineStr"/>
+      <c r="CY3" t="inlineStr"/>
+      <c r="CZ3" t="inlineStr"/>
+      <c r="DA3" t="inlineStr"/>
+      <c r="DB3" t="inlineStr"/>
+      <c r="DC3" t="inlineStr"/>
+      <c r="DD3" t="inlineStr"/>
+      <c r="DE3" t="inlineStr"/>
+      <c r="DF3" t="inlineStr"/>
+      <c r="DG3" t="inlineStr"/>
+      <c r="DH3" t="inlineStr"/>
+      <c r="DI3" t="inlineStr"/>
+      <c r="DJ3" t="inlineStr"/>
+      <c r="DK3" t="inlineStr"/>
+      <c r="DL3" t="inlineStr"/>
+      <c r="DM3" t="inlineStr"/>
+      <c r="DN3" t="inlineStr"/>
+      <c r="DO3" t="inlineStr"/>
+      <c r="DP3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1340,6 +2972,102 @@
       </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="inlineStr"/>
+      <c r="AS4" t="inlineStr"/>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AU4" t="inlineStr"/>
+      <c r="AV4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr"/>
+      <c r="AX4" t="inlineStr"/>
+      <c r="AY4" t="inlineStr"/>
+      <c r="AZ4" t="inlineStr"/>
+      <c r="BA4" t="inlineStr"/>
+      <c r="BB4" t="inlineStr"/>
+      <c r="BC4" t="inlineStr"/>
+      <c r="BD4" t="inlineStr"/>
+      <c r="BE4" t="inlineStr"/>
+      <c r="BF4" t="inlineStr"/>
+      <c r="BG4" t="inlineStr"/>
+      <c r="BH4" t="inlineStr"/>
+      <c r="BI4" t="inlineStr"/>
+      <c r="BJ4" t="inlineStr"/>
+      <c r="BK4" t="inlineStr"/>
+      <c r="BL4" t="inlineStr"/>
+      <c r="BM4" t="inlineStr"/>
+      <c r="BN4" t="inlineStr"/>
+      <c r="BO4" t="inlineStr"/>
+      <c r="BP4" t="inlineStr"/>
+      <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
+      <c r="BS4" t="inlineStr"/>
+      <c r="BT4" t="inlineStr"/>
+      <c r="BU4" t="inlineStr"/>
+      <c r="BV4" t="inlineStr"/>
+      <c r="BW4" t="inlineStr"/>
+      <c r="BX4" t="inlineStr"/>
+      <c r="BY4" t="inlineStr"/>
+      <c r="BZ4" t="inlineStr"/>
+      <c r="CA4" t="inlineStr"/>
+      <c r="CB4" t="inlineStr"/>
+      <c r="CC4" t="inlineStr"/>
+      <c r="CD4" t="inlineStr"/>
+      <c r="CE4" t="inlineStr"/>
+      <c r="CF4" t="inlineStr"/>
+      <c r="CG4" t="inlineStr"/>
+      <c r="CH4" t="inlineStr"/>
+      <c r="CI4" t="inlineStr"/>
+      <c r="CJ4" t="inlineStr"/>
+      <c r="CK4" t="inlineStr"/>
+      <c r="CL4" t="inlineStr"/>
+      <c r="CM4" t="inlineStr"/>
+      <c r="CN4" t="inlineStr"/>
+      <c r="CO4" t="inlineStr"/>
+      <c r="CP4" t="inlineStr"/>
+      <c r="CQ4" t="inlineStr"/>
+      <c r="CR4" t="inlineStr"/>
+      <c r="CS4" t="inlineStr"/>
+      <c r="CT4" t="inlineStr"/>
+      <c r="CU4" t="inlineStr"/>
+      <c r="CV4" t="inlineStr"/>
+      <c r="CW4" t="inlineStr"/>
+      <c r="CX4" t="inlineStr"/>
+      <c r="CY4" t="inlineStr"/>
+      <c r="CZ4" t="inlineStr"/>
+      <c r="DA4" t="inlineStr"/>
+      <c r="DB4" t="inlineStr"/>
+      <c r="DC4" t="inlineStr"/>
+      <c r="DD4" t="inlineStr"/>
+      <c r="DE4" t="inlineStr"/>
+      <c r="DF4" t="inlineStr"/>
+      <c r="DG4" t="inlineStr"/>
+      <c r="DH4" t="inlineStr"/>
+      <c r="DI4" t="inlineStr"/>
+      <c r="DJ4" t="inlineStr"/>
+      <c r="DK4" t="inlineStr"/>
+      <c r="DL4" t="inlineStr"/>
+      <c r="DM4" t="inlineStr"/>
+      <c r="DN4" t="inlineStr"/>
+      <c r="DO4" t="inlineStr"/>
+      <c r="DP4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1420,6 +3148,102 @@
       </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr"/>
+      <c r="AS5" t="inlineStr"/>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AU5" t="inlineStr"/>
+      <c r="AV5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr"/>
+      <c r="AX5" t="inlineStr"/>
+      <c r="AY5" t="inlineStr"/>
+      <c r="AZ5" t="inlineStr"/>
+      <c r="BA5" t="inlineStr"/>
+      <c r="BB5" t="inlineStr"/>
+      <c r="BC5" t="inlineStr"/>
+      <c r="BD5" t="inlineStr"/>
+      <c r="BE5" t="inlineStr"/>
+      <c r="BF5" t="inlineStr"/>
+      <c r="BG5" t="inlineStr"/>
+      <c r="BH5" t="inlineStr"/>
+      <c r="BI5" t="inlineStr"/>
+      <c r="BJ5" t="inlineStr"/>
+      <c r="BK5" t="inlineStr"/>
+      <c r="BL5" t="inlineStr"/>
+      <c r="BM5" t="inlineStr"/>
+      <c r="BN5" t="inlineStr"/>
+      <c r="BO5" t="inlineStr"/>
+      <c r="BP5" t="inlineStr"/>
+      <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
+      <c r="BS5" t="inlineStr"/>
+      <c r="BT5" t="inlineStr"/>
+      <c r="BU5" t="inlineStr"/>
+      <c r="BV5" t="inlineStr"/>
+      <c r="BW5" t="inlineStr"/>
+      <c r="BX5" t="inlineStr"/>
+      <c r="BY5" t="inlineStr"/>
+      <c r="BZ5" t="inlineStr"/>
+      <c r="CA5" t="inlineStr"/>
+      <c r="CB5" t="inlineStr"/>
+      <c r="CC5" t="inlineStr"/>
+      <c r="CD5" t="inlineStr"/>
+      <c r="CE5" t="inlineStr"/>
+      <c r="CF5" t="inlineStr"/>
+      <c r="CG5" t="inlineStr"/>
+      <c r="CH5" t="inlineStr"/>
+      <c r="CI5" t="inlineStr"/>
+      <c r="CJ5" t="inlineStr"/>
+      <c r="CK5" t="inlineStr"/>
+      <c r="CL5" t="inlineStr"/>
+      <c r="CM5" t="inlineStr"/>
+      <c r="CN5" t="inlineStr"/>
+      <c r="CO5" t="inlineStr"/>
+      <c r="CP5" t="inlineStr"/>
+      <c r="CQ5" t="inlineStr"/>
+      <c r="CR5" t="inlineStr"/>
+      <c r="CS5" t="inlineStr"/>
+      <c r="CT5" t="inlineStr"/>
+      <c r="CU5" t="inlineStr"/>
+      <c r="CV5" t="inlineStr"/>
+      <c r="CW5" t="inlineStr"/>
+      <c r="CX5" t="inlineStr"/>
+      <c r="CY5" t="inlineStr"/>
+      <c r="CZ5" t="inlineStr"/>
+      <c r="DA5" t="inlineStr"/>
+      <c r="DB5" t="inlineStr"/>
+      <c r="DC5" t="inlineStr"/>
+      <c r="DD5" t="inlineStr"/>
+      <c r="DE5" t="inlineStr"/>
+      <c r="DF5" t="inlineStr"/>
+      <c r="DG5" t="inlineStr"/>
+      <c r="DH5" t="inlineStr"/>
+      <c r="DI5" t="inlineStr"/>
+      <c r="DJ5" t="inlineStr"/>
+      <c r="DK5" t="inlineStr"/>
+      <c r="DL5" t="inlineStr"/>
+      <c r="DM5" t="inlineStr"/>
+      <c r="DN5" t="inlineStr"/>
+      <c r="DO5" t="inlineStr"/>
+      <c r="DP5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1500,6 +3324,102 @@
       </c>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr"/>
+      <c r="AS6" t="inlineStr"/>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AU6" t="inlineStr"/>
+      <c r="AV6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr"/>
+      <c r="AX6" t="inlineStr"/>
+      <c r="AY6" t="inlineStr"/>
+      <c r="AZ6" t="inlineStr"/>
+      <c r="BA6" t="inlineStr"/>
+      <c r="BB6" t="inlineStr"/>
+      <c r="BC6" t="inlineStr"/>
+      <c r="BD6" t="inlineStr"/>
+      <c r="BE6" t="inlineStr"/>
+      <c r="BF6" t="inlineStr"/>
+      <c r="BG6" t="inlineStr"/>
+      <c r="BH6" t="inlineStr"/>
+      <c r="BI6" t="inlineStr"/>
+      <c r="BJ6" t="inlineStr"/>
+      <c r="BK6" t="inlineStr"/>
+      <c r="BL6" t="inlineStr"/>
+      <c r="BM6" t="inlineStr"/>
+      <c r="BN6" t="inlineStr"/>
+      <c r="BO6" t="inlineStr"/>
+      <c r="BP6" t="inlineStr"/>
+      <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
+      <c r="BS6" t="inlineStr"/>
+      <c r="BT6" t="inlineStr"/>
+      <c r="BU6" t="inlineStr"/>
+      <c r="BV6" t="inlineStr"/>
+      <c r="BW6" t="inlineStr"/>
+      <c r="BX6" t="inlineStr"/>
+      <c r="BY6" t="inlineStr"/>
+      <c r="BZ6" t="inlineStr"/>
+      <c r="CA6" t="inlineStr"/>
+      <c r="CB6" t="inlineStr"/>
+      <c r="CC6" t="inlineStr"/>
+      <c r="CD6" t="inlineStr"/>
+      <c r="CE6" t="inlineStr"/>
+      <c r="CF6" t="inlineStr"/>
+      <c r="CG6" t="inlineStr"/>
+      <c r="CH6" t="inlineStr"/>
+      <c r="CI6" t="inlineStr"/>
+      <c r="CJ6" t="inlineStr"/>
+      <c r="CK6" t="inlineStr"/>
+      <c r="CL6" t="inlineStr"/>
+      <c r="CM6" t="inlineStr"/>
+      <c r="CN6" t="inlineStr"/>
+      <c r="CO6" t="inlineStr"/>
+      <c r="CP6" t="inlineStr"/>
+      <c r="CQ6" t="inlineStr"/>
+      <c r="CR6" t="inlineStr"/>
+      <c r="CS6" t="inlineStr"/>
+      <c r="CT6" t="inlineStr"/>
+      <c r="CU6" t="inlineStr"/>
+      <c r="CV6" t="inlineStr"/>
+      <c r="CW6" t="inlineStr"/>
+      <c r="CX6" t="inlineStr"/>
+      <c r="CY6" t="inlineStr"/>
+      <c r="CZ6" t="inlineStr"/>
+      <c r="DA6" t="inlineStr"/>
+      <c r="DB6" t="inlineStr"/>
+      <c r="DC6" t="inlineStr"/>
+      <c r="DD6" t="inlineStr"/>
+      <c r="DE6" t="inlineStr"/>
+      <c r="DF6" t="inlineStr"/>
+      <c r="DG6" t="inlineStr"/>
+      <c r="DH6" t="inlineStr"/>
+      <c r="DI6" t="inlineStr"/>
+      <c r="DJ6" t="inlineStr"/>
+      <c r="DK6" t="inlineStr"/>
+      <c r="DL6" t="inlineStr"/>
+      <c r="DM6" t="inlineStr"/>
+      <c r="DN6" t="inlineStr"/>
+      <c r="DO6" t="inlineStr"/>
+      <c r="DP6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
